--- a/TestData/Register page/tc29.xlsx
+++ b/TestData/Register page/tc29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\Register page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284FD8A-D58D-42D7-BA1A-3E40B9390E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395067A0-4317-4E36-8817-4A3419427258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,16 +54,16 @@
     <t>C:\Users\mohni\Downloads\Sign mohni updated.jpg</t>
   </si>
   <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>anu@gmail.com</t>
-  </si>
-  <si>
-    <t>Bhopal</t>
-  </si>
-  <si>
-    <t>Anu@1234</t>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>sandeep@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Sandeep@123</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>9340123456</v>
+        <v>7817008251</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -476,9 +476,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4F2D3A38-C876-4174-A79C-C6BDC426436F}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{D3C62944-25B2-4902-93B6-5BCD023237A3}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{77BD6179-4DC5-4774-9A55-C26114893CE9}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B17FBFF2-6996-4BFA-BF09-7C15FDFA3996}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{FDE7245C-488D-4637-AD0D-DEB8447F0264}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{3E6FD527-18E9-4C78-9093-F61F15A858CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
